--- a/plan.xlsx
+++ b/plan.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng phân bổ công việc" sheetId="1" r:id="rId1"/>
+    <sheet name="Thông tin team" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>PHÂN BỔ NGUỒN LỰC - CÔNG VIỆC</t>
   </si>
@@ -147,13 +148,101 @@
   </si>
   <si>
     <t>Project: Thiết kế website quảng cáo thương hiệu, dịch vụ mà team sonar cung cấp - website chính thức của TEAM SONAR</t>
+  </si>
+  <si>
+    <t>THÔNG TIN TEAM</t>
+  </si>
+  <si>
+    <t>HỌ TÊN</t>
+  </si>
+  <si>
+    <t>SĐT</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>VỊ TRÍ CÔNG VIỆC</t>
+  </si>
+  <si>
+    <t>MÔ TẢ</t>
+  </si>
+  <si>
+    <t>vanhop.av@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <t>Full Stack Web Developer -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Team Leader</t>
+    </r>
+  </si>
+  <si>
+    <t>01659 030 457</t>
+  </si>
+  <si>
+    <t>0916 797 006</t>
+  </si>
+  <si>
+    <t>anhvdpd01720@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>Web Developer</t>
+  </si>
+  <si>
+    <t>Web Developer, Web Tester</t>
+  </si>
+  <si>
+    <t>Font-end Developer</t>
+  </si>
+  <si>
+    <t>01634 635 606</t>
+  </si>
+  <si>
+    <t>0935 738 305</t>
+  </si>
+  <si>
+    <t>0988 769 320</t>
+  </si>
+  <si>
+    <t>tinhndpd01662@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>haunvpd01852@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>kieunmpd01760@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>Yêu thích các lĩnh vực trong phát triển website và không ngừng học hỏi để thành một Full Stack Web Development</t>
+  </si>
+  <si>
+    <t>Thích chơi game, nghe nhạc và giành 15h 1 ngày làm việc với chiếc laptop cá nhân</t>
+  </si>
+  <si>
+    <t>Yêu màu đỏ, ghét màu hồng. Ghét giao tiếp</t>
+  </si>
+  <si>
+    <t>Ước mơ đi phượt khắp mọi nơi trên đất nước</t>
+  </si>
+  <si>
+    <t>Thích chơi game và là một game thủ.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +281,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +298,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -298,11 +395,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,6 +502,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -325,55 +533,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -654,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,318 +947,313 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="8">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="15" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="12" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="15" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="15" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="15" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="8">
         <v>3</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="15" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="15" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="15" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="8">
         <v>4</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="21" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="21" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="8">
         <v>5</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="14"/>
+      <c r="F20" s="42"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="15" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="15" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="15" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="15" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A25:F25"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="C20:C24"/>
@@ -994,8 +1267,170 @@
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="52" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="45" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="49">
+        <v>1</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>2</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>3</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>4</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>5</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
 </file>
--- a/plan.xlsx
+++ b/plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng phân bổ công việc" sheetId="1" r:id="rId1"/>
@@ -509,36 +509,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -648,6 +618,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,21 +947,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
@@ -987,273 +987,275 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="52">
         <v>1</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="31" t="s">
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="45"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="46" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="47"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="54">
         <v>2</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="30"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="31" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="33"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="31" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="33"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="34" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="36"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="52">
         <v>3</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="30"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="31" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="33"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="31" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="33"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="34" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="52">
         <v>4</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="30"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="38" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="33"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="39" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="36"/>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="52">
         <v>5</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="42"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="31" t="s">
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="33"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="31" t="s">
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="33"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="31" t="s">
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="33"/>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="34" t="s">
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="36"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A25:F25"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="C20:C24"/>
@@ -1270,8 +1272,6 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1282,7 +1282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1290,7 +1290,7 @@
   <cols>
     <col min="1" max="1" width="5.28515625" style="7" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="42" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" style="7" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" style="7" customWidth="1"/>
     <col min="6" max="6" width="45" style="7" customWidth="1"/>
@@ -1298,127 +1298,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="49">
+      <c r="A4" s="39">
         <v>1</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="38" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="16">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="47" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="11">
         <v>4</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="13">
         <v>5</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="14" t="s">
         <v>63</v>
       </c>
     </row>
